--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_35.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2173069.743855598</v>
+        <v>2227126.17848235</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17290971.53779842</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484435</v>
+        <v>278692.0725916859</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5562045.901710254</v>
+        <v>5631355.77467748</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>322.9639268876603</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>303.426664281559</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -789,7 +789,7 @@
         <v>62.82088317610075</v>
       </c>
       <c r="T3" t="n">
-        <v>128.8768572327043</v>
+        <v>128.8768572327044</v>
       </c>
       <c r="U3" t="n">
         <v>174.5731815300314</v>
@@ -817,10 +817,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -829,10 +829,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>125.4289004454253</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>92.23111960579234</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>327.7904349358024</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>55.491495043635</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
@@ -962,7 +962,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1060,7 +1060,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -1069,7 +1069,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>8.129390960577833</v>
+        <v>132.5528029886901</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>308.3086748172354</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>179.883470512022</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>163.293878347428</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>220.0133209501109</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1376,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>161.4258646586683</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1427,7 +1427,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655136</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1528,7 +1528,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>170.8360944016067</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -1537,7 +1537,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>140.2653052259361</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
@@ -1546,7 +1546,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>157.8824880649894</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>154.4380635245698</v>
+        <v>422.0365747800603</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791316201</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1768,7 +1768,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>134.226379929127</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1783,7 +1783,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1828,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>125.1716544454844</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800226</v>
       </c>
       <c r="T17" t="n">
-        <v>39.47142524088139</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2011,13 +2011,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>35.34780583513587</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>103.8284742946034</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2084,7 +2084,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773011</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -2239,7 +2239,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -2254,7 +2254,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>114.957773048</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2375,7 +2375,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655108</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
@@ -2491,7 +2491,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>127.6561220736176</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -2728,7 +2728,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>123.2901323038658</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225785</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2770,7 +2770,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2962,13 +2962,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>160.788496495006</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>54.66258501924958</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225785</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3323,7 +3323,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
@@ -3472,13 +3472,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>136.0564930766999</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3676,10 +3676,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,19 +3706,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>172.6623007436914</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3758,7 +3758,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>128.6631732150132</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
@@ -3904,7 +3904,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>28.46824604904448</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3977,7 +3977,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884113</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -4043,7 +4043,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>136.1921297287219</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4147,7 +4147,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4198,7 +4198,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>41.00451938202616</v>
+        <v>99.28616603324375</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>846.6806259663152</v>
+        <v>959.3315093046215</v>
       </c>
       <c r="C2" t="n">
-        <v>812.5785571901426</v>
+        <v>925.2294405284488</v>
       </c>
       <c r="D2" t="n">
-        <v>383.996882927411</v>
+        <v>893.3600597432974</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>863.6257189419966</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4337,13 +4337,13 @@
         <v>874.0494664914149</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4367,13 +4367,13 @@
         <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>1292.327975491451</v>
       </c>
       <c r="X2" t="n">
-        <v>1681.26632015157</v>
+        <v>985.8363954090678</v>
       </c>
       <c r="Y2" t="n">
-        <v>1272.980196451223</v>
+        <v>981.5906757491252</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4386,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4395,10 +4395,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4413,16 +4413,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1011.135564714323</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="C4" t="n">
-        <v>838.5738531975477</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="D4" t="n">
-        <v>672.6958603990704</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E4" t="n">
-        <v>502.9378566498077</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F4" t="n">
-        <v>326.2308026115638</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>160.6395276373915</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
         <v>33.94366860160834</v>
@@ -4486,52 +4486,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>1181.483761245743</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
-        <v>1181.483761245743</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.765608785789</v>
+        <v>1604.020683003859</v>
       </c>
       <c r="T4" t="n">
-        <v>1675.765608785789</v>
+        <v>1604.020683003859</v>
       </c>
       <c r="U4" t="n">
-        <v>1675.765608785789</v>
+        <v>1604.020683003859</v>
       </c>
       <c r="V4" t="n">
-        <v>1675.765608785789</v>
+        <v>1317.06517487429</v>
       </c>
       <c r="W4" t="n">
-        <v>1675.765608785789</v>
+        <v>1045.038770460581</v>
       </c>
       <c r="X4" t="n">
-        <v>1430.373854119202</v>
+        <v>799.6470157939939</v>
       </c>
       <c r="Y4" t="n">
-        <v>1202.95418343331</v>
+        <v>572.2273451081021</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1654.761434047123</v>
+        <v>1004.780474350448</v>
       </c>
       <c r="C5" t="n">
-        <v>1323.65998461702</v>
+        <v>566.6380015338716</v>
       </c>
       <c r="D5" t="n">
-        <v>1291.790603831868</v>
+        <v>130.7282167083161</v>
       </c>
       <c r="E5" t="n">
-        <v>863.2089295691367</v>
+        <v>74.67620151272519</v>
       </c>
       <c r="F5" t="n">
-        <v>435.3414999783445</v>
+        <v>50.84917596233697</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233697</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233697</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947698</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.6870740423949</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>485.6870740423949</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>485.6870740423949</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>485.6870740423949</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>557.7649106726423</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1181.86569471742</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1805.966478762197</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720792</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473849</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657686</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2217.900228530724</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2217.900228530724</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1855.283278464551</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1854.468227915988</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1839.366168535703</v>
       </c>
       <c r="Y5" t="n">
-        <v>1677.020600491627</v>
+        <v>1431.080044835356</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807697</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>450.147670417412</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639653</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.936966890919</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>177.5531285070806</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>92.1680387732645</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947698</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993457</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.0543847161469</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1025.155168760924</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813121</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.9080326605329</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1024.341879988165</v>
+        <v>731.1704199171455</v>
       </c>
       <c r="C7" t="n">
-        <v>851.7801684713901</v>
+        <v>558.6087084003705</v>
       </c>
       <c r="D7" t="n">
-        <v>685.9021756729128</v>
+        <v>392.7307156018931</v>
       </c>
       <c r="E7" t="n">
-        <v>516.14417192365</v>
+        <v>392.7307156018931</v>
       </c>
       <c r="F7" t="n">
-        <v>339.4371178854062</v>
+        <v>216.0236615636493</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>50.43238658947698</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947698</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947698</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>50.43238658947698</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>325.1908411606126</v>
       </c>
       <c r="L7" t="n">
-        <v>813.4916901053949</v>
+        <v>743.4007229285737</v>
       </c>
       <c r="M7" t="n">
-        <v>813.4916901053949</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>813.4916901053949</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473849</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.201508179221</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2340.960139477217</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2095.080693055672</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>1816.647692308778</v>
       </c>
       <c r="V7" t="n">
-        <v>1697.183430080417</v>
+        <v>1529.692184179208</v>
       </c>
       <c r="W7" t="n">
-        <v>1688.971924059632</v>
+        <v>1395.800463988612</v>
       </c>
       <c r="X7" t="n">
-        <v>1443.580169393044</v>
+        <v>1150.408709322024</v>
       </c>
       <c r="Y7" t="n">
-        <v>1216.160498707152</v>
+        <v>922.9890386361326</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153.4764845146214</v>
+        <v>2223.59842635773</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>2041.897951093061</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>1605.988166267505</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>857.0776321906106</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>857.0776321906106</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>857.0776321906106</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>857.0776321906106</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1277.130531135514</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>1292.327975491451</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X8" t="n">
-        <v>873.1855120707613</v>
+        <v>2250.103312462176</v>
       </c>
       <c r="Y8" t="n">
-        <v>464.8993883704147</v>
+        <v>2245.857592802233</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1113.00182921349</v>
+        <v>959.897665623735</v>
       </c>
       <c r="C10" t="n">
-        <v>940.4401176967148</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>774.5621248982375</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>604.8041211489747</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>428.0970671107308</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>120.5233537662982</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>120.5233537662982</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>540.5762527112014</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>960.6291516561047</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1380.298400881886</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V10" t="n">
-        <v>1697.183430080417</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W10" t="n">
-        <v>1532.240118618369</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X10" t="n">
-        <v>1532.240118618369</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y10" t="n">
-        <v>1304.820447932477</v>
+        <v>959.897665623735</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2252.656868168569</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>1814.514395351992</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1378.604610526437</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.548181578287</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>787.6807519874947</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>386.2829206107585</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>97.1527660539752</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>96.7359766811152</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J11" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K11" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L11" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M11" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N11" t="n">
-        <v>2441.40092234507</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510714</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344109</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302704</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.79883405576</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239597</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112636</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U11" t="n">
-        <v>4273.857430429653</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>3911.240480363479</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3506.385025774513</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
-        <v>3087.242562353823</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2678.956438653477</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H12" t="n">
-        <v>96.7359766811152</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I12" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>447.3579748077852</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1052.109260520273</v>
+        <v>1181.31900088266</v>
       </c>
       <c r="C13" t="n">
-        <v>879.5475490034976</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D13" t="n">
-        <v>713.6695562050203</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E13" t="n">
-        <v>543.9115524557576</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F13" t="n">
-        <v>402.229425964913</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G13" t="n">
-        <v>236.6381509907407</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H13" t="n">
-        <v>96.7359766811152</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>96.7359766811152</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J13" t="n">
-        <v>183.3156618458051</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>458.0741164169406</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.395586583915</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2554.154217881912</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T13" t="n">
-        <v>2554.154217881912</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U13" t="n">
-        <v>2275.721217135017</v>
+        <v>2132.904553083696</v>
       </c>
       <c r="V13" t="n">
-        <v>1988.765709005447</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="W13" t="n">
-        <v>1716.739304591739</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X13" t="n">
-        <v>1471.347549925151</v>
+        <v>1600.557290287539</v>
       </c>
       <c r="Y13" t="n">
-        <v>1243.92787923926</v>
+        <v>1373.137619601647</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2522.958394689264</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.815921872688</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.906137047132</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.131392205427</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>787.2639626146351</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G14" t="n">
-        <v>385.8661312378989</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H14" t="n">
-        <v>96.7359766811152</v>
+        <v>102.6776296436399</v>
       </c>
       <c r="I14" t="n">
-        <v>96.7359766811152</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J14" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K14" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L14" t="n">
-        <v>2312.656441940407</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M14" t="n">
-        <v>2312.656441940407</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="N14" t="n">
-        <v>2312.656441940407</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O14" t="n">
-        <v>3292.836108510714</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P14" t="n">
-        <v>4121.145983344109</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.644769302704</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.79883405576</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S14" t="n">
-        <v>4753.146960239597</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T14" t="n">
-        <v>4533.079733112636</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U14" t="n">
-        <v>4273.857430429653</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>3911.240480363479</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W14" t="n">
-        <v>3506.385025774513</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X14" t="n">
-        <v>3087.242562353823</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y14" t="n">
-        <v>2678.956438653476</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H15" t="n">
-        <v>96.7359766811152</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I15" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>447.3579748077852</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1056.838397217808</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C16" t="n">
-        <v>884.2766857010329</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D16" t="n">
-        <v>748.6944837524196</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E16" t="n">
-        <v>578.9364800031568</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F16" t="n">
-        <v>402.229425964913</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>236.6381509907407</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>96.7359766811152</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>96.7359766811152</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J16" t="n">
-        <v>183.3156618458051</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>458.0741164169406</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2691.977765289287</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2532.736396587283</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2286.856950165738</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>2008.423949418844</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V16" t="n">
-        <v>1721.468441289275</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W16" t="n">
-        <v>1721.468441289275</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="X16" t="n">
-        <v>1476.076686622687</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y16" t="n">
-        <v>1248.657015936795</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2525.22255580238</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2087.080082985804</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1651.170298160248</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1217.395553318543</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>789.5281237277509</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>388.1302923510148</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H17" t="n">
-        <v>99.00013779423102</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>98.58334842137103</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J17" t="n">
-        <v>533.8380358742888</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K17" t="n">
-        <v>1368.188327832467</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L17" t="n">
-        <v>2443.248294085327</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M17" t="n">
-        <v>2443.248294085327</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="N17" t="n">
-        <v>2443.248294085327</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O17" t="n">
-        <v>3385.204695523504</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P17" t="n">
-        <v>4213.514570356901</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q17" t="n">
-        <v>4760.013356315495</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R17" t="n">
-        <v>4929.167421068551</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S17" t="n">
-        <v>4845.515547252388</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4805.645420746448</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4546.423118063464</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4183.806167997291</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3778.950713408324</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3359.808249987635</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2951.522126287288</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.7550934126638</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.2986322493061</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.2083433958593</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.087928722813</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>225.7040903389747</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.3190006051585</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H18" t="n">
-        <v>98.58334842137103</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I18" t="n">
-        <v>124.6470215818286</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>449.2053465480409</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1644.65033180584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1761.82310990018</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.367672348563</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.189028679164</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1391.852481679133</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1192.734963741132</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1007.412209474326</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>852.5447737132062</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.0589944924269</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>808.0771858389835</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>635.5154743222084</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>469.6374815237311</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>299.8794777744683</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>299.8794777744683</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>134.2882028002961</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H19" t="n">
-        <v>98.58334842137103</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I19" t="n">
-        <v>98.58334842137103</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1630335860609</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>459.9214881571964</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L19" t="n">
-        <v>878.1313699251575</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1337.61523710607</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1779.874040263715</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2199.543289489497</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.050183459839</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2556.001589622168</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2310.122143200623</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2031.689142453728</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1744.733634324158</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1472.70722991045</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1227.315475243862</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>999.8958045579707</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
         <v>1654.847790009657</v>
@@ -5738,10 +5738,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5762,40 +5762,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>920.0973401405612</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C22" t="n">
-        <v>920.0973401405612</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D22" t="n">
-        <v>754.2193473420839</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E22" t="n">
-        <v>584.4613435928212</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F22" t="n">
-        <v>407.7542895545774</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5932,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T22" t="n">
-        <v>2422.1422975022</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U22" t="n">
-        <v>2143.709296755305</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V22" t="n">
-        <v>1856.753788625736</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W22" t="n">
-        <v>1584.727384212028</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X22" t="n">
-        <v>1339.33562954544</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y22" t="n">
-        <v>1111.915958859548</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6023,16 +6023,16 @@
         <v>4550.100609912873</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6157,7 +6157,7 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
-        <v>1783.551532113123</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O25" t="n">
         <v>2203.220781338905</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2451.623182457406</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2173.190181710511</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1886.234673580942</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6224,16 +6224,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1463.16863798718</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M26" t="n">
-        <v>1463.16863798718</v>
+        <v>2528.913654892426</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>1077.292364523333</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>904.7306530065579</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>738.8526602080806</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>569.0946564588178</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>392.387602420574</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>226.7963274464017</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1741.922408594799</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1496.530653928212</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1269.11098324232</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181458</v>
+        <v>441.3805170312517</v>
       </c>
       <c r="F31" t="n">
-        <v>496.414238779902</v>
+        <v>264.6734629930079</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6649,22 +6649,22 @@
         <v>2697.502628878951</v>
       </c>
       <c r="T31" t="n">
-        <v>2451.623182457407</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U31" t="n">
-        <v>2173.190181710512</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V31" t="n">
-        <v>2117.975449367836</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W31" t="n">
-        <v>1845.949044954127</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X31" t="n">
-        <v>1600.55729028754</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601648</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="32">
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
         <v>780.1951658309357</v>
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
         <v>1654.847790009657</v>
@@ -6923,10 +6923,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771602</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436396</v>
@@ -6944,43 +6944,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7072,7 +7072,7 @@
         <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
         <v>614.3171730324584</v>
@@ -7120,10 +7120,10 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130894</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
         <v>2176.368833962455</v>
@@ -7154,16 +7154,16 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7181,28 +7181,28 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
         <v>4550.100609912873</v>
@@ -7211,13 +7211,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7354,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2117.975449367836</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2526.635886538673</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2088.493413722096</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1652.583628896541</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1218.808884054836</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>790.9414544640437</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>389.5436230873075</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H41" t="n">
-        <v>100.4134685305238</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>100.4134685305238</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>535.6681559834417</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1370.01844794162</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2445.078414194479</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2445.078414194479</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2496.531034410836</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3476.710700981142</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>4305.020575814538</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4851.519361773133</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>5020.673426526189</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>4937.021552710026</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4807.05875148274</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4547.836448799757</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4185.219498733583</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3780.364044144616</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
-        <v>3361.221580723927</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2952.935457023581</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>606.5852135218166</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>500.1287523584589</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>405.0384635050121</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>310.9180488319658</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>227.5342104481275</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>142.1491207143113</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>100.4134685305238</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>126.4771416909814</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>451.0354666571937</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1646.480451914993</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1763.653230009333</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.197792457716</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1570.019148788317</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1393.682601788286</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1194.565083850285</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1009.242329583479</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>854.374893822359</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.8891146015798</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>809.9073059481361</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>637.3455944313612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>471.4676016328839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>442.71179754294</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>266.0047435046961</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>100.4134685305238</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>100.4134685305238</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>100.4134685305238</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>186.9931536952136</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7516082663493</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>879.9614900343103</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1339.445357215223</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1781.704160372868</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2201.373409598649</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2548.880303568991</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2717.073078433324</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2717.073078433324</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2557.83170973132</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>2311.952263309775</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>2033.519262562881</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>1746.563754433311</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1474.537350019603</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1229.145595353015</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1001.725924667123</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2523.375184062124</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2085.232711245548</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1649.322926419992</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1215.548181578287</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>787.6807519874951</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>386.2829206107589</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H44" t="n">
-        <v>97.15276605397518</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2441.40092234507</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3421.580588915377</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>4249.890463748773</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4667.644769302703</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>4753.146960239596</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4533.079733112635</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4273.857430429652</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>3911.240480363478</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3506.385025774511</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3087.242562353822</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2949.674754547032</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1010.202862318824</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C46" t="n">
-        <v>837.6411508020491</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D46" t="n">
-        <v>671.7631580035718</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E46" t="n">
-        <v>502.0051542543091</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F46" t="n">
-        <v>325.2981002160653</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G46" t="n">
-        <v>325.2981002160653</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H46" t="n">
-        <v>185.3959259064399</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>183.3156618458051</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113125</v>
       </c>
       <c r="O46" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338906</v>
       </c>
       <c r="P46" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309248</v>
       </c>
       <c r="Q46" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.92045017358</v>
       </c>
       <c r="R46" t="n">
-        <v>2713.395586583915</v>
+        <v>2697.502628878952</v>
       </c>
       <c r="S46" t="n">
-        <v>2554.154217881911</v>
+        <v>2538.261260176949</v>
       </c>
       <c r="T46" t="n">
-        <v>2308.274771460367</v>
+        <v>2538.261260176949</v>
       </c>
       <c r="U46" t="n">
-        <v>2029.841770713472</v>
+        <v>2259.828259430054</v>
       </c>
       <c r="V46" t="n">
-        <v>1742.886262583902</v>
+        <v>1972.872751300484</v>
       </c>
       <c r="W46" t="n">
-        <v>1470.859858170194</v>
+        <v>1700.846346886776</v>
       </c>
       <c r="X46" t="n">
-        <v>1429.441151723703</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y46" t="n">
-        <v>1202.021481037811</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
   </sheetData>
@@ -7985,7 +7985,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -7994,7 +7994,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8061,7 +8061,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>371.7091627680287</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8225,16 +8225,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>72.80589558610842</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>630.4048323684622</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684622</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684622</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664742049</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8380,19 +8380,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>110.4038313238325</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>407.152590549595</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>88.52591951400996</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8611,22 +8611,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>150.1941962971705</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821538</v>
@@ -8699,10 +8699,10 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O11" t="n">
-        <v>860.0355415814579</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8930,10 +8930,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>955.8742281294913</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9170,13 +9170,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>951.471112563816</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158823</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9872,19 +9872,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>531.8762684426488</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10592,10 +10592,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10829,10 +10829,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>51.97234365288523</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11315,7 +11315,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>421.9740460140711</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>268.0111327346194</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>34.67467827192522</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>117.7661826744363</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>267.5985112554889</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>29.99283294136552</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>117.7661826744373</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>178.3951296148104</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23899,13 +23899,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>103.1553467313934</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>128.4628789093293</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>3.146865729424327</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>141.6500182959538</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>15.21302026266341</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>3.146865729424633</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>229.4233680290243</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627254</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25360,13 +25360,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,19 +25594,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>102.9863699957343</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25646,7 +25646,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,7 +25679,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>89.20338164067857</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25792,7 +25792,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>139.5921776627256</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25931,7 +25931,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>268.0111327346212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26035,7 +26035,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>201.9333177378955</v>
+        <v>143.6516710866779</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>481393.1980948098</v>
+        <v>485620.6389025683</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>481393.1980948098</v>
+        <v>486381.7989178768</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>468122.8147641762</v>
+        <v>487878.1324796033</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>468122.8147641761</v>
+        <v>487878.1324796033</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>474728.4829539807</v>
+        <v>487878.1324796033</v>
       </c>
     </row>
     <row r="8">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>481272.4642897988</v>
+        <v>487878.1324796033</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>468122.814764176</v>
+        <v>487878.1324796033</v>
       </c>
     </row>
   </sheetData>
@@ -26317,16 +26317,16 @@
         <v>469128.9049041075</v>
       </c>
       <c r="D2" t="n">
-        <v>469128.9049041074</v>
+        <v>469128.9049041075</v>
       </c>
       <c r="E2" t="n">
-        <v>442333.4107252171</v>
+        <v>461000.3861201834</v>
       </c>
       <c r="F2" t="n">
-        <v>442333.410725217</v>
+        <v>461000.3861201833</v>
       </c>
       <c r="G2" t="n">
-        <v>448575.1653425116</v>
+        <v>461000.3861201833</v>
       </c>
       <c r="H2" t="n">
         <v>461000.3861201833</v>
@@ -26338,22 +26338,22 @@
         <v>461000.3861201833</v>
       </c>
       <c r="K2" t="n">
-        <v>461000.3861201834</v>
+        <v>461000.3861201833</v>
       </c>
       <c r="L2" t="n">
         <v>461000.3861201833</v>
       </c>
       <c r="M2" t="n">
-        <v>461000.3861201832</v>
+        <v>461000.3861201834</v>
       </c>
       <c r="N2" t="n">
-        <v>461000.3861201832</v>
+        <v>461000.3861201833</v>
       </c>
       <c r="O2" t="n">
-        <v>454758.6315028885</v>
+        <v>461000.3861201833</v>
       </c>
       <c r="P2" t="n">
-        <v>442333.4107252169</v>
+        <v>461000.3861201834</v>
       </c>
     </row>
     <row r="3">
@@ -26366,37 +26366,37 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501571</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.5955499832</v>
       </c>
       <c r="E3" t="n">
-        <v>234355.0220220375</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6329.211042850244</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>12402.75497996349</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449903</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877216</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622667</v>
       </c>
       <c r="M3" t="n">
-        <v>195601.1792830678</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,25 +26418,25 @@
         <v>181432.3864604621</v>
       </c>
       <c r="C4" t="n">
-        <v>181432.3864604621</v>
+        <v>138489.297795555</v>
       </c>
       <c r="D4" t="n">
-        <v>181432.3864604621</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="E4" t="n">
-        <v>26563.08616012789</v>
+        <v>27684.07875020261</v>
       </c>
       <c r="F4" t="n">
-        <v>26563.08616012789</v>
+        <v>27684.07875020261</v>
       </c>
       <c r="G4" t="n">
-        <v>26937.91713981297</v>
+        <v>27684.07875020264</v>
       </c>
       <c r="H4" t="n">
+        <v>27684.07875020263</v>
+      </c>
+      <c r="I4" t="n">
         <v>27684.07875020268</v>
-      </c>
-      <c r="I4" t="n">
-        <v>27684.07875020272</v>
       </c>
       <c r="J4" t="n">
         <v>27684.07875020268</v>
@@ -26454,10 +26454,10 @@
         <v>27684.07875020268</v>
       </c>
       <c r="O4" t="n">
-        <v>27309.2477705176</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="P4" t="n">
-        <v>26563.08616012789</v>
+        <v>27684.07875020268</v>
       </c>
     </row>
     <row r="5">
@@ -26470,25 +26470,25 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.2138080025</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764755</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764755</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="G5" t="n">
-        <v>74923.34480024198</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>76314.23608319808</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>73519.34227764753</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>86080.42964671316</v>
+        <v>86080.42964671314</v>
       </c>
       <c r="C6" t="n">
-        <v>228271.730306423</v>
+        <v>192095.6254055343</v>
       </c>
       <c r="D6" t="n">
-        <v>228271.730306423</v>
+        <v>252631.4845603467</v>
       </c>
       <c r="E6" t="n">
-        <v>107895.9602654041</v>
+        <v>173219.7352037558</v>
       </c>
       <c r="F6" t="n">
-        <v>342250.9822874415</v>
+        <v>355574.8444248055</v>
       </c>
       <c r="G6" t="n">
-        <v>340384.6923596064</v>
+        <v>355574.8444248055</v>
       </c>
       <c r="H6" t="n">
-        <v>343195.3137842246</v>
+        <v>355574.8444248055</v>
       </c>
       <c r="I6" t="n">
-        <v>355598.068764188</v>
+        <v>355574.8444248055</v>
       </c>
       <c r="J6" t="n">
-        <v>244583.6034191979</v>
+        <v>244560.3790798153</v>
       </c>
       <c r="K6" t="n">
-        <v>355598.0687641882</v>
+        <v>302528.9897860333</v>
       </c>
       <c r="L6" t="n">
-        <v>355598.0687641882</v>
+        <v>346182.5426981828</v>
       </c>
       <c r="M6" t="n">
-        <v>159996.8894811202</v>
+        <v>203374.6734868179</v>
       </c>
       <c r="N6" t="n">
-        <v>355598.068764188</v>
+        <v>355574.8444248054</v>
       </c>
       <c r="O6" t="n">
-        <v>351135.1476491728</v>
+        <v>355574.8444248055</v>
       </c>
       <c r="P6" t="n">
-        <v>342250.9822874415</v>
+        <v>355574.8444248055</v>
       </c>
     </row>
   </sheetData>
@@ -26790,19 +26790,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684622</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="G4" t="n">
-        <v>1232.291855267138</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26826,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1255.168356631547</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,37 +27012,37 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483578</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939479</v>
       </c>
       <c r="E4" t="n">
-        <v>784.9038509938357</v>
+        <v>610.7452967768886</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.09214675319789</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>45.96864811760723</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201046</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483578</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939479</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938357</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,22 +27258,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483578</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939479</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938357</v>
+        <v>610.7452967768886</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.09214675319789</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>45.96864811760723</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>106.4730705056275</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>111.5243745049234</v>
+      </c>
+      <c r="Y2" t="n">
         <v>400</v>
-      </c>
-      <c r="X2" t="n">
-        <v>400</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,10 +27537,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,10 +27549,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>13.07425212110392</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>65.41783540919096</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -27594,10 +27594,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>373.9455023496528</v>
+      </c>
+      <c r="F5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
-        <v>105.9706131526085</v>
-      </c>
-      <c r="D5" t="n">
-        <v>400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>5.14113987318342</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
@@ -27682,7 +27682,7 @@
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27780,7 +27780,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,7 +27789,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>261.1767494089935</v>
+        <v>136.7533373808813</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>113.7278999628232</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>253.8775775763889</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28059,25 +28059,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>106.0122620221433</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>5.132153028921891</v>
       </c>
     </row>
     <row r="11">
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-1.875832822406664e-12</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28248,7 +28248,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>5.835349368461374e-13</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -28324,16 +28324,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-1.60335193397949e-12</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-4.82703532317577e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-4.82703532317577e-14</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-1.205788572437525e-12</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -30697,7 +30697,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -30888,7 +30888,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>1.131184035330079e-12</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -34705,7 +34705,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -34714,7 +34714,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34781,7 +34781,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34793,7 +34793,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>371.7091627680287</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,16 +34945,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>72.80589558610842</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>630.4048323684622</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684622</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,16 +35009,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684622</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664742049</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>110.4038313238325</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>407.152590549595</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>88.52591951400996</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>150.1941962971705</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
@@ -35419,10 +35419,10 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O11" t="n">
-        <v>860.0355415814579</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35486,10 +35486,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35571,10 +35571,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35644,16 +35644,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>955.8742281294913</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35808,10 +35808,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -35890,13 +35890,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>951.471112563816</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
@@ -35960,10 +35960,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158823</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35981,7 +35981,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132079</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960965</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36130,7 +36130,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36522,13 +36522,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645584</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
-        <v>531.8762684426488</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36765,7 +36765,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37236,10 +37236,10 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N34" t="n">
-        <v>446.7260637956008</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37312,10 +37312,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37549,10 +37549,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37780,7 +37780,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -37789,7 +37789,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>51.97234365288523</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37950,7 +37950,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38017,7 +38017,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
@@ -38026,16 +38026,16 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>421.9740460140711</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
         <v>170.862691669754</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38181,13 +38181,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637956017</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
